--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam4-Itgal.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam4-Itgal.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>5.271646666666667</v>
+        <v>0.2564746666666666</v>
       </c>
       <c r="H2">
-        <v>15.81494</v>
+        <v>0.7694239999999999</v>
       </c>
       <c r="I2">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="J2">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>25.15544366666667</v>
+        <v>0.04738633333333334</v>
       </c>
       <c r="N2">
-        <v>75.466331</v>
+        <v>0.142159</v>
       </c>
       <c r="O2">
-        <v>0.9701024243751556</v>
+        <v>0.05760194168856402</v>
       </c>
       <c r="P2">
-        <v>0.9701024243751556</v>
+        <v>0.05760194168856402</v>
       </c>
       <c r="Q2">
-        <v>132.6106107539045</v>
+        <v>0.01215339404622222</v>
       </c>
       <c r="R2">
-        <v>1193.49549678514</v>
+        <v>0.109380546416</v>
       </c>
       <c r="S2">
-        <v>0.7958453892163798</v>
+        <v>0.01047207562093192</v>
       </c>
       <c r="T2">
-        <v>0.7958453892163798</v>
+        <v>0.01047207562093192</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>5.271646666666667</v>
+        <v>0.2564746666666666</v>
       </c>
       <c r="H3">
-        <v>15.81494</v>
+        <v>0.7694239999999999</v>
       </c>
       <c r="I3">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="J3">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.890449</v>
       </c>
       <c r="O3">
-        <v>0.02430128951224074</v>
+        <v>0.7659981644722047</v>
       </c>
       <c r="P3">
-        <v>0.02430128951224074</v>
+        <v>0.7659981644722047</v>
       </c>
       <c r="Q3">
-        <v>3.321926389784445</v>
+        <v>0.1616174257084444</v>
       </c>
       <c r="R3">
-        <v>29.89733750806</v>
+        <v>1.454556831376</v>
       </c>
       <c r="S3">
-        <v>0.0199361105841851</v>
+        <v>0.139259033093333</v>
       </c>
       <c r="T3">
-        <v>0.0199361105841851</v>
+        <v>0.139259033093333</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>5.271646666666667</v>
+        <v>0.2564746666666666</v>
       </c>
       <c r="H4">
-        <v>15.81494</v>
+        <v>0.7694239999999999</v>
       </c>
       <c r="I4">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="J4">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1451156666666666</v>
+        <v>0.1451156666666667</v>
       </c>
       <c r="N4">
-        <v>0.4353469999999999</v>
+        <v>0.435347</v>
       </c>
       <c r="O4">
-        <v>0.005596286112603656</v>
+        <v>0.1763998938392313</v>
       </c>
       <c r="P4">
-        <v>0.005596286112603657</v>
+        <v>0.1763998938392313</v>
       </c>
       <c r="Q4">
-        <v>0.7649985204644444</v>
+        <v>0.03721849223644444</v>
       </c>
       <c r="R4">
-        <v>6.884986684179999</v>
+        <v>0.334966430128</v>
       </c>
       <c r="S4">
-        <v>0.004591039448561283</v>
+        <v>0.03206963122521859</v>
       </c>
       <c r="T4">
-        <v>0.004591039448561283</v>
+        <v>0.03206963122521859</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>3.256445</v>
       </c>
       <c r="I5">
-        <v>0.1689224273740603</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="J5">
-        <v>0.1689224273740602</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>25.15544366666667</v>
+        <v>0.04738633333333334</v>
       </c>
       <c r="N5">
-        <v>75.466331</v>
+        <v>0.142159</v>
       </c>
       <c r="O5">
-        <v>0.9701024243751556</v>
+        <v>0.05760194168856402</v>
       </c>
       <c r="P5">
-        <v>0.9701024243751556</v>
+        <v>0.05760194168856402</v>
       </c>
       <c r="Q5">
-        <v>27.30577291703278</v>
+        <v>0.05143699608388889</v>
       </c>
       <c r="R5">
-        <v>245.751956253295</v>
+        <v>0.462932964755</v>
       </c>
       <c r="S5">
-        <v>0.163872056326912</v>
+        <v>0.0443211263170965</v>
       </c>
       <c r="T5">
-        <v>0.163872056326912</v>
+        <v>0.0443211263170965</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.256445</v>
       </c>
       <c r="I6">
-        <v>0.1689224273740603</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="J6">
-        <v>0.1689224273740602</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.890449</v>
       </c>
       <c r="O6">
-        <v>0.02430128951224074</v>
+        <v>0.7659981644722047</v>
       </c>
       <c r="P6">
-        <v>0.02430128951224074</v>
+        <v>0.7659981644722047</v>
       </c>
       <c r="Q6">
         <v>0.6840159104227778</v>
@@ -818,10 +818,10 @@
         <v>6.156143193804999</v>
       </c>
       <c r="S6">
-        <v>0.0041050328127275</v>
+        <v>0.5893881423267521</v>
       </c>
       <c r="T6">
-        <v>0.004105032812727499</v>
+        <v>0.5893881423267521</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.256445</v>
       </c>
       <c r="I7">
-        <v>0.1689224273740603</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="J7">
-        <v>0.1689224273740602</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,16 +862,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1451156666666666</v>
+        <v>0.1451156666666667</v>
       </c>
       <c r="N7">
-        <v>0.4353469999999999</v>
+        <v>0.435347</v>
       </c>
       <c r="O7">
-        <v>0.005596286112603656</v>
+        <v>0.1763998938392313</v>
       </c>
       <c r="P7">
-        <v>0.005596286112603657</v>
+        <v>0.1763998938392313</v>
       </c>
       <c r="Q7">
         <v>0.1575203957127778</v>
@@ -880,10 +880,10 @@
         <v>1.417683561415</v>
       </c>
       <c r="S7">
-        <v>0.0009453382344207532</v>
+        <v>0.1357287922591536</v>
       </c>
       <c r="T7">
-        <v>0.0009453382344207532</v>
+        <v>0.1357287922591536</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.06878966666666665</v>
+        <v>0.06878966666666667</v>
       </c>
       <c r="H8">
         <v>0.206369</v>
       </c>
       <c r="I8">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="J8">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>25.15544366666667</v>
+        <v>0.04738633333333334</v>
       </c>
       <c r="N8">
-        <v>75.466331</v>
+        <v>0.142159</v>
       </c>
       <c r="O8">
-        <v>0.9701024243751556</v>
+        <v>0.05760194168856402</v>
       </c>
       <c r="P8">
-        <v>0.9701024243751556</v>
+        <v>0.05760194168856402</v>
       </c>
       <c r="Q8">
-        <v>1.730434584682111</v>
+        <v>0.003259690074555556</v>
       </c>
       <c r="R8">
-        <v>15.573911262139</v>
+        <v>0.029337210671</v>
       </c>
       <c r="S8">
-        <v>0.01038497883186374</v>
+        <v>0.002808739750535596</v>
       </c>
       <c r="T8">
-        <v>0.01038497883186374</v>
+        <v>0.002808739750535596</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.06878966666666665</v>
+        <v>0.06878966666666667</v>
       </c>
       <c r="H9">
         <v>0.206369</v>
       </c>
       <c r="I9">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="J9">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.890449</v>
       </c>
       <c r="O9">
-        <v>0.02430128951224074</v>
+        <v>0.7659981644722047</v>
       </c>
       <c r="P9">
-        <v>0.02430128951224074</v>
+        <v>0.7659981644722047</v>
       </c>
       <c r="Q9">
-        <v>0.0433477855201111</v>
+        <v>0.04334778552011111</v>
       </c>
       <c r="R9">
         <v>0.3901300696809999</v>
       </c>
       <c r="S9">
-        <v>0.000260146115328145</v>
+        <v>0.03735098905211957</v>
       </c>
       <c r="T9">
-        <v>0.000260146115328145</v>
+        <v>0.03735098905211957</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.06878966666666665</v>
+        <v>0.06878966666666667</v>
       </c>
       <c r="H10">
         <v>0.206369</v>
       </c>
       <c r="I10">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="J10">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1451156666666666</v>
+        <v>0.1451156666666667</v>
       </c>
       <c r="N10">
-        <v>0.4353469999999999</v>
+        <v>0.435347</v>
       </c>
       <c r="O10">
-        <v>0.005596286112603656</v>
+        <v>0.1763998938392313</v>
       </c>
       <c r="P10">
-        <v>0.005596286112603657</v>
+        <v>0.1763998938392313</v>
       </c>
       <c r="Q10">
-        <v>0.009982458338111108</v>
+        <v>0.009982458338111112</v>
       </c>
       <c r="R10">
-        <v>0.08984212504299997</v>
+        <v>0.089842125043</v>
       </c>
       <c r="S10">
-        <v>5.990842962162001E-05</v>
+        <v>0.008601470354859137</v>
       </c>
       <c r="T10">
-        <v>5.990842962162002E-05</v>
+        <v>0.008601470354859137</v>
       </c>
     </row>
   </sheetData>
